--- a/Controles/Cronograma.xlsx
+++ b/Controles/Cronograma.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex-\OneDrive\Área de Trabalho\Projeto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDFEFE61-E803-4A6B-9EFB-A9C194A55CF6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{125BB13D-699C-4C62-B8E2-C408344EAD98}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{E15141F4-FCED-4DF0-BDC7-962492EF0BA4}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>CRONOGRAMA</t>
   </si>
@@ -68,6 +68,15 @@
     <t>*Integrantes do grupo definiram que será desenvolvido os códigos da página em HTML , CSS e JAVA
 *Será desenvolvido BD (Banco de Dados) para a página e estudado posteriormente como integrar ao site
 *Prototipagem concluida (FIGMA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*Encontro do grupo para apresentação dos resultados delegados em 24/03. 
+*Alex e Iago telas - Suporte 1 e 2 
+*Pedro e Alan telas - Login e Cadastro 
+*Matheus e Guilherme tela - Carinho e finalização
+*Guilherme  tela - Produto
+*Enviado dados do Github para  autorização no repositório. 
+*Próxima reunião dia 14/04/2022 já com os códigos </t>
   </si>
 </sst>
 </file>
@@ -469,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F26EDC0-A5D2-4BC6-85C8-F153CE375B8A}">
-  <dimension ref="A1:N68"/>
+  <dimension ref="A1:N81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71:H81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1030,7 +1039,7 @@
       <c r="G64" s="5"/>
       <c r="H64" s="5"/>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
@@ -1039,7 +1048,7 @@
       <c r="G65" s="5"/>
       <c r="H65" s="5"/>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
@@ -1048,7 +1057,7 @@
       <c r="G66" s="5"/>
       <c r="H66" s="5"/>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
@@ -1057,7 +1066,7 @@
       <c r="G67" s="5"/>
       <c r="H67" s="5"/>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
@@ -1066,8 +1075,113 @@
       <c r="G68" s="5"/>
       <c r="H68" s="5"/>
     </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="4">
+        <v>44651</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B72" s="5"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="5"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="5"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B74" s="5"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="5"/>
+      <c r="H74" s="5"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B75" s="5"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="5"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B76" s="5"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="5"/>
+      <c r="H76" s="5"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B77" s="5"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="5"/>
+      <c r="H77" s="5"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B78" s="5"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="5"/>
+      <c r="H78" s="5"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B79" s="5"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="5"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B80" s="5"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="5"/>
+      <c r="H80" s="5"/>
+    </row>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B81" s="5"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="5"/>
+      <c r="H81" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="B71:H81"/>
     <mergeCell ref="B58:H68"/>
     <mergeCell ref="B45:H55"/>
     <mergeCell ref="B32:H42"/>
